--- a/MiAPD_data1_countries.xlsx
+++ b/MiAPD_data1_countries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubad\Desktop\A\STUDIES\sem_05\MiAPD\proj1\Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CCEF88-3621-425E-AC2C-7673C284761D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC525CC-E233-4B7F-8AD4-BFA75419A995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{01D61A11-4A8B-4C9E-932F-78C880155BDA}"/>
+    <workbookView xWindow="21000" yWindow="3930" windowWidth="17280" windowHeight="8835" xr2:uid="{01D61A11-4A8B-4C9E-932F-78C880155BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -489,17 +489,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811DCBAA-ECF6-4692-9BDE-0F3F623CC95D}">
   <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.41796875" customWidth="1"/>
-    <col min="5" max="5" width="16.1015625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -516,7 +516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -533,7 +533,7 @@
         <v>40139</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -550,7 +550,7 @@
         <v>31939</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -567,7 +567,7 @@
         <v>52559</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -584,7 +584,7 @@
         <v>39637</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -601,7 +601,7 @@
         <v>64649</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -618,7 +618,7 @@
         <v>74356</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -635,7 +635,7 @@
         <v>29123</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -652,7 +652,7 @@
         <v>45775</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -672,7 +672,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -694,7 +694,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -711,7 +711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -728,7 +728,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -745,12 +745,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>15</v>
@@ -765,7 +765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -782,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -799,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -816,7 +816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
